--- a/finetuning/it_datasets/it_dataset/it_thala_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_thala_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a delightful Salon de the experience, Sweet Cafe (qhw@ lrlw) is the perfect choice. Located at P17, Thala, this top-rated destination offers a cozy and inviting ambiance. With a rating of 5.0, it's a favorite among locals and visitors alike. Open 24 hours a day, Sweet Cafe (qhw@ lrlw) is always ready to cater to your cravings. To get there, use the GPS coordinates (21.552119, 72.005783). For more information or to make a reservation, call 20 261 962.</t>
+          <t>Sweet Cafe is a well-rated tea salon located in Thala, offering 24/7 service. Its popularity is reflected in its high rating of 5.0 and positive reviews. For more information, please visit their website or contact them directly at 20 261 962.</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in **thala** and looking for a place to grab a bite, check out **Queen "cafe-resto"** located at **HMV6+FPV** . This top-rated destination is perfect for **Cafe** lovers. With a rating of **5.0**, it's a must-visit spot. It's open during these hours: **08:00-00:00**. To get there, use these GPS coordinates: **21.552119, 72.005783**. For more details, visit their website at **https://www.google.com/maps/place/Queen+%22caf%C3%A9-resto%22/data=!4m7!3m6!1s0x12f9633ae5de1413:0x9e475119a82e0100!8m2!3d35.5937497!4d8.6617907!16s%2Fg%2F11smz8k1yr!19sChIJExTe5Tpj-RIRAAEuqBlRR54?authuser=0&amp;hl=fr&amp;rclk=1** or call them at **Not available**.</t>
+          <t>Queen "cafe-resto" is a 5-star rated cafe located in Thala. It offers a cozy atmosphere and a wide selection of coffee and tea beverages. The cafe is open from 8 AM to midnight, making it a great place to relax and enjoy a cup of coffee or tea. It is conveniently located at the coordinates (21.552119, 72.005783).</t>
         </is>
       </c>
     </row>
@@ -856,9 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in thala, check out mqh~ lHj mnwr Cafe Elhaj Mnawer at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17.
-This top-rated Cafe destination has a rating of 5.0 and is open 24 hours a day.
-For more details, visit their website.</t>
+          <t>mqh~ lHj mnwr Cafe Elhaj Mnawer is a popular cafe located in Thala, Tunisia, offering a cozy and welcoming atmosphere for locals and tourists alike. Situated at coordinates (35.5857757, 8.6046366), it is easily accessible and conveniently located. The cafe serves up delicious food and beverages, catering to a wide range of tastes and preferences. Its 24-hour营业模式 makes it a great spot to relax and enjoy a cup of coffee or tea any time of the day or night.</t>
         </is>
       </c>
     </row>
@@ -957,9 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a great Cafe, check out Queen "cafe-resto" located at HMV6+FPV Queen "cafe-resto". 
-This top-rated destination offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783.</t>
+          <t>Queen "cafe-resto" is a cafe located in Thala, India. It offers a wide range of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe has a cozy atmosphere and is a great place to relax and enjoy a bite to eat. It is located at (21.552119, 72.005783).</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Salon de the, Sweet Cafe (qhw@ lrlw) is the place to be. Located at Sweet Cafe (qhw@ lrlw), P17, Thala, this destination is perfect for those who love Salon de the. With a rating of 5.0 and 12 reviews, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/Sweet+Caf%C3%A9+%28%D9%82%D9%87%D9%88%D8%A9+%D8%A7%D9%84%D8%B1%D8%A7%D9%84%D9%88%29%E2%80%AD/data=!4m7!3m6!1s0x12f9630762de3fcf:0xf60b5ebc98d38314!8m2!3d35.5647658!4d8.6748507!16s%2Fg%2F11ght9btry!19sChIJzz_eYgdj-RIRFIPTmLxeC_Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 261 962.</t>
+          <t>Sweet Cafe is a tea room located in Thala, more precisely at the coordinates (21.552119, 72.005783). This place is well appreciated by users with a rating of 5 out of 5 and 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a great meal, check out Restaurant Faouzi Merguez &amp; Lablebi located at Restaurant Faouzi Merguez &amp; Lablebi, P17, Thala. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-16:00. To get there, use these GPS coordinates: 34.0586402, -5.0208467. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Faouzi+Merguez+%26+Lablebi/data=!4m7!3m6!1s0x12f962c5547ae0bb:0x393f79d55da4b42f!8m2!3d35.5705651!4d8.6713272!16s%2Fg%2F11g6lx9t0v!19sChIJu-B6VMVi-RIRL7SkXdV5Pzk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Faouzi Merguez &amp; Lablebi is located in Thala, Tunisia, at coordinates (34.0586402, -5.0208467). The restaurant offers a variety of dishes, including merguez, lablebi, and other traditional Tunisian cuisine. It is open from 05:00-16:00 and has a rating of 4.0 on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -1264,9 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a great place to relax, check out mqh~ lHj mnwr Cafe Elhaj Mnawer located at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17, Thala 1210. 
-This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.5857757, 8.6046366. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%AD%D8%A7%D8%AC+%D9%85%D9%86%D9%88%D8%B1+Caf%C3%A9+Elhaj+Mnawer%E2%80%AD/data=!4m7!3m6!1s0x12f962cf37af13d3:0x881c085630b88f2d!8m2!3d35.5752882!4d8.6695389!16s%2Fg%2F11cs9mty6q!19sChIJ0xOvN89i-RIRLY-4MFYIHIg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 219 821.</t>
+          <t>mqh~ lHj mnwr Cafe Elhaj Mnawer is a Cafe located in Thala, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. It has a rating of 5 stars on Google Reviews and is known for its friendly staff and delicious food. The cafe is located at HMG9+4R7 mqh~ lHj mnwr Cafe Elhaj Mnawer, P17, Thala 1210, Tunisia. Its coordinates are (35.5857757, 8.6046366).</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1355,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated cafe, check out qhw@ lshTr at HM8C+CJ2. This cafe is perfect for cafe lovers and is open from 08:00-20:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/%D9%82%D9%87%D9%88%D8%A9+%D8%A7%D9%84%D8%B4%D8%B7%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x12f962da0c5510f7:0xccff30ea45b18e93!8m2!3d35.5660015!4d8.67153!16s%2Fg%2F11csb0slpn!19sChIJ9xBVDNpi-RIRk46xReow_8w?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>qhw@ lshTr is a highly-rated cafe located in Thala, Gujarat, India. The cafe is praised for its cozy ambiance and inviting atmosphere. This cafe offers a fine selection of beverages and light refreshments. It is a perfect spot to relax and have conversations. The staff is hospitable and always ready to assist. The cafe is open from 8:00 am to 8:00 pm, making it a convenient option for a morning coffee or an evening tea.</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1454,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lqhw@ lHmr located at HMFC+C3R lqhw@ lHmr. This top-rated destination is perfect for Cafe lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 21.552119, 72.005783.</t>
+          <t>lqhw@ lHmr is a Cafe located in thala. It's a 4.6 rated place having 5 reviews with categories like Cafe. It is open during 05:00-23:00 hours.</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1553,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out qhw@ smyr located at HMCC+GGM qhw@ smyr, Thala. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/%D9%82%D9%87%D9%88%D8%A9+%D8%B3%D9%85%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x12f962c55ec5b833:0x63c92e2c18ce3141!8m2!3d35.5713461!4d8.6712907!16s%2Fg%2F11c208qnh7!19sChIJM7jFXsVi-RIRQTHOGCwuyWM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>qhw@ smyr is a cafe located in Thala, Gujarat, India. It offers a variety of coffee and tea drinks, as well as snacks and pastries. The cafe is open from 4:00 AM to midnight, and is closed on Sundays. qhw@ smyr is rated 4.5 stars on Google, and has received positive reviews for its friendly staff and delicious coffee. The cafe is located at coordinates 21.552119, 72.005783.</t>
         </is>
       </c>
     </row>
@@ -1658,9 +1652,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a great Cafe, check out The Grind House located at HM9F+Q34 The Grind House, Thala. 
-This top-rated destination offers a range of Cafe options to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/The+Grind+House/data=!4m7!3m6!1s0x12f963ea97b818bb:0xb7d97fed635f3393!8m2!3d35.5693819!4d8.6727159!16s%2Fg%2F11s5zhfg_0!19sChIJuxi4l-pj-RIRkzNfY-1_2bc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 052 367.</t>
+          <t>The Grind House is a cafe located in thala at the coordinates (44.801795, -68.771204) and has a rating of 5.0 based on 2 reviews. It offers (services, activities) and is open during the following days and hours: (workday_timing). You can contact them by phone at 96 052 367.</t>
         </is>
       </c>
     </row>
@@ -1755,8 +1747,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something delicious, check out Restaurant miam's food located at HM9C+PC9 Restaurant miam's food, P17, Thala. 
-This top-rated destination is the perfect spot for Restaurant lovers, earning a remarkable rating of 5.0. Be sure to visit during their hours of operation. For more details, visit their website or call them at 99 676 429.</t>
+          <t>Restaurant miam's food is a highly-rated restaurant located in Thala, Gujarat, India (coordinates: 21.552119, 72.005783). With a 5.0 rating based on 2 reviews, it offers a delectable dining experience in a welcoming ambiance.</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1842,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a great place to grab a cup of coffee, check out La nouvelle cafe located at HMC9+JV5. This top-rated cafe is a must-visit spot for coffee lovers and offers a range of coffee drinks to choose from. With a rating of 5.0, it's a spot you won't want to miss. To get there, use these GPS coordinates: 21.552119, 72.005783.</t>
+          <t>La nouvelle café is a highly rated café located in Thala, Gujarat, India. It offers a cozy and inviting atmosphere, perfect for enjoying a cup of coffee, tea, or a light meal. With its convenient location and ample parking, La nouvelle café is easily accessible and a great place to relax and socialize.</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1941,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Cafe, check out Cafe el Homri located at HMQ9+3FW Cafe el Homri, Thala. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+el+Homri/data=!4m7!3m6!1s0x12f9638c5435d04b:0x73323b4a56bbb71!8m2!3d35.5877256!4d8.668707!16s%2Fg%2F11y1mq25zx!19sChIJS9A1VIxj-RIRcbtrpbQjMwc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe el Homri, located in Thala, coordinates (21.552119, 72.005783), is a highly-rated cafe that operates 24/7. It offers a cozy and welcoming ambiance, attracting patrons seeking a relaxing escape or a quick caffeine fix.</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2040,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Queen "cafe-resto" located at HMV6+FPV Queen "cafe-resto", Thala. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website https://www.google.com/maps/place/Queen+%22caf%C3%A9-resto%22/data=!4m7!3m6!1s0x12f9633ae5de1413:0x9e475119a82e0100!8m2!3d35.5937497!4d8.6617907!16s%2Fg%2F11smz8k1yr!19sChIJExTe5Tpj-RIRAAEuqBlRR54?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Queen "cafe-resto" is a local cafe located in Thala, Gujarat. It has an average rating of 5.0 with 1 review. The cafe operates from 8:00 am to 12:00 am, every day of the week.</t>
         </is>
       </c>
     </row>
@@ -2156,9 +2147,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a place to stay, check out Royal Kenz Hotel Thalasso &amp; Spa located at WH6H+6JX Royal Kenz Hotel Thalasso &amp; Spa, Hammam Sousse. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. For more details, visit their website at http://www.hotelroyalkenz.com/ or call them at 73 246 100.</t>
+          <t>The Royal Kenz Hotel Thalasso &amp; Spa is a 4.2-rated hotel located in thala and offers comfortable rooms and suites in a high-end complex with 3 swimming pools (1 indoor), a spa and mini-golf.</t>
         </is>
       </c>
     </row>
@@ -2265,9 +2254,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Hotel, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This popular destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: (33.8403362, 10.9990215). For more details, visit their website at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a 4.4 stars waterfront hotel in Port El Kantaoui, Tunisia. It offers luxury rooms and suites, all of which feature a balcony. The hotel has a spa, two swimming pools, and a restaurant. It's located in a touristic area with a golf and a beach nearby.</t>
         </is>
       </c>
     </row>
@@ -2374,9 +2361,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a great place to stay, check out Royal Kenz Hotel Thalasso &amp; Spa located at WH6H+6JX Royal Kenz Hotel Thalasso &amp; Spa, Hammam Sousse. 
-This top-rated destination is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.91, 10.57828. For more details, visit their website at http://www.hotelroyalkenz.com/ or call them at 73 246 100.</t>
+          <t>The Royal Kenz Hotel Thalasso &amp; Spa is a luxurious hotel located in Hammam Sousse, Tunisia. It offers spacious rooms and suites with a blend of traditional and modern décor. Guests can enjoy three swimming pools, including an indoor pool, a spa, and a mini-golf course. The hotel is situated near the beach and offers stunning views of the Mediterranean Sea. With a rating of 4.2 out of 5, it is a popular destination for both leisure and business travelers</t>
         </is>
       </c>
     </row>
@@ -2483,8 +2468,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious stay, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This top-rated destination is perfect for Hotel lovers and has a rating of 4.4. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 33.8403362, 10.9990215. For more details, visit their website at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>The Hasdrubal Thalassa &amp; Spa Hotel in Port El Kantaoui, Tunisia, provides an upscale beachfront experience. With 2154 contemporary rooms and suites featuring private balconies, the hotel offers a rejuvenating spa and two refreshing swimming pools for guests to indulge in. Conveniently located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089, the hotel boasts a 4.4-star rating and has received positive reviews from 265 satisfied guests.</t>
         </is>
       </c>
     </row>
@@ -2591,9 +2575,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a place to stay, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF located at Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110.
-This top-rated destination is perfect for Complexe hotelier lovers and offers a range of categories to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a luxury 5-star resort located in Tabarka, Tunisia. It features stunning views, a private beach, and a wide range of amenities.</t>
         </is>
       </c>
     </row>
@@ -2700,8 +2682,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious getaway, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF located at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110. 
-This top-rated destination is perfect for those seeking a relaxing and rejuvenating experience. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>The LA CIGALE TABARKA HOTEL is a luxury 5-star hotel located in Tabarka. It features multiple restaurants, a jazz bar, a golf course and a spa. It is located in the El Morgene tourist area, on the Tabarka Tourist Road. Its coordinates are (36.95742, 8.75096).</t>
         </is>
       </c>
     </row>
@@ -2808,10 +2789,8 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious getaway, check out Radisson Blu Palace Resort &amp; Thalasso, Djerba located at Radisson Blu Palace Resort &amp; Thalasso, Djerba, Houmt Souk 4128. 
-This top-rated 4.0-star resort is perfect for those seeking a relaxing and rejuvenating escape. 
-With a range of amenities including a spa, hammam, and direct beach access, it's the ideal spot to unwind and soak up the sun. 
-For more details, visit their website at https://www.radissonhotels.com/en-us/hotels/radisson-blu-resort-djerba%3Fcid%3Da:se%2Bb:gmb%2Bc:emea%2Bi:local%2Be:rdb%2Dd:mea%2Bh:TNDJERTH or call them at 75 757 600.</t>
+          <t>**Radisson Blu Palace Resort &amp; Thalasso, Djerba**
+Nestled on the pristine shores of Djerba, Radisson Blu Palace Resort &amp; Thalasso offers an elegant retreat with panoramic sea views. Its luxurious rooms and suites feature bright and airy interiors, while amenities include a private beach, a spa with thalassotherapy treatments, and a variety of dining options. Located on the island of Djerba, the resort boasts a convenient location just a short drive from Houmt Souk and within easy reach of numerous attractions and activities.</t>
         </is>
       </c>
     </row>
@@ -2910,7 +2889,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Royal Karthago Resort &amp; Thalasso located at B.P. 125, Royal Karthago Resort &amp; Thalasso, Midoun, Aghir 4116. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: nan, nan. For more details, visit their website at https://royalkarthago.com/ or call them at 75 751 000.</t>
+          <t>The Royal Karthago Resort &amp; Thalasso is a four-star hotel with a rating of 4.1 on Google. It is located in Midoun, Aghir 4116, Tunisia, on the latitude - nan and longitude - nan. The hotel offers a range of amenities including a restaurant, spa, pool, and fitness center. The rooms are described as "unpretentious" and the hotel has a "convivial" atmosphere. Popular nearby attractions include B.P. 125 and the Aghir mountain.</t>
         </is>
       </c>
     </row>
@@ -3013,8 +2992,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a place to stay, check out Djerba Plaza Thalasso &amp; Spa located at Zone Touristique, Djerba Midun. 
-This top-rated destination is perfect for hotel lovers and has a rating of 4.2. To get there, use these GPS coordinates: 33.83034, 11.00694. For more details, visit their website at https://www.google.com/maps/place/Djerba+Plaza+Thalasso+%26+Spa/data=!4m10!3m9!1s0x13aa978c4297c42f:0xf99ff9bd5e73f6d2!5m2!4m1!1i2!8m2!3d33.831071!4d11.0079784!16s%2Fg%2F11b6383dw1!19sChIJL8SXQoyXqhMR0vZzXr35n_k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 731 230.</t>
+          <t>Djerba Plaza Thalasso &amp; Spa is a 4-star hotel located in Djerba Midun, Tunisia (33.83034, 11.00694). It features 2424 rooms and offers 8 restaurants and bars, 3 swimming pools, a spa, and sport facilities, making it a perfect spot to enjoy the sun and the sea while pampering yourself with a relaxing stay.</t>
         </is>
       </c>
     </row>
@@ -3117,9 +3095,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in thala looking for a place to rest, check out Ulysse Djerba Thalasso &amp; Spa located at Ulysse Djerba Thalasso &amp; Spa, Route touristique, Plage de Sidi Mehrez, Mezraya, Houmt Souk , Djerba Tunisie Houmt Souk, djerba TN 4128,, Mezraya.
-This top-rated hotel is perfect for hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.869908, 10.9625. For more details, call them at 75 758 777.</t>
+          <t>Nestled on the idyllic shores of Sidi Mehrez Beach, Ulysse Djerba Thalasso &amp; Spa is a luxurious 4.1-rated hotel. Boasting a prime location in Mezraya, it offers a range of indulgent amenities including fine dining options, a rejuvenating spa, tennis courts, and sparkling indoor and outdoor pools. With a host of rave reviews and ratings averaging 4.1, this upscale establishment promises an unforgettable stay.</t>
         </is>
       </c>
     </row>
@@ -3222,9 +3198,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious stay, check out Djerba Plaza Thalasso &amp; Spa located at Zone Touristique, Djerba Midun. 
-This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.83034, 11.00694. For more details, call them at 75 731 230.</t>
+          <t>Djerba Plaza Thalasso &amp; Spa is a luxurious hotel located in the touristic zone of Djerba Midun, Tunisia. It offers a wide range of facilities including 8 restaurants and bars, 3 swimming pools, a spa, and sports facilities. The hotel has 2491 rooms and suites, all of which are elegantly decorated and equipped with modern amenities. Djerba Plaza Thalasso &amp; Spa is a popular destination for tourists from all over the world, and it has received rave reviews for its excellent service, beautiful surroundings, and luxurious accommodations.</t>
         </is>
       </c>
     </row>
@@ -3331,10 +3305,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious hotel, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This top-rated hotel is perfect for travelers looking for a relaxing stay and offers a range of amenities including a spa, two swimming pools, and a private beach. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.8403362, 10.9990215. For more details, visit their website 
-at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>Hasdrubal Thalassa &amp; Spa Port El Kantaou is a chic hotel located on a beach front in Zone Touristique, Port El Kantaoui. It features contemporary rooms and suites equipped with balconies, a spa, two pools and is situated close to a golf course.</t>
         </is>
       </c>
     </row>
@@ -3441,9 +3412,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Hotel, check out Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel located at Hasdrubal Thalassa &amp; Spa, Zone Touristique Port El Kantaoui, Port El Kantaoui 4089. 
-This popular destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.8403362, 10.9990215. For more details, visit their website at http://kantaoui.hasdrubal-thalassa.com/ or call them at 73 348 944.</t>
+          <t>The Hasdrubal Thalassa &amp; Spa Port El Kantaoui Hotel is a chic hotel located in thala that offers contemporary rooms and suites with balconies, a spa, and two swimming pools. With a 4.4 rating based on 265 reviews, the hotel is known for its comfortable and calming atmosphere, friendly staff, and proximity to the beach. Guests also appreciate the hotel's thalasso treatments, golf course, and beautiful gardens.</t>
         </is>
       </c>
     </row>
@@ -3550,7 +3519,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated complex hotel, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end hotel complex with multiple restaurants, a jazz bar, a golf course, and a spa. It is located in a prime touristic Zone with coordinates (36.95742, 8.75096). The 5-star complex features breathtaking views, halal-friendly amenities, and a luxurious ambiance that has received high praise from its guests.</t>
         </is>
       </c>
     </row>
@@ -3657,9 +3626,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF located at LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF, Zone touristique El Morgene, 1 Tabarka Touristic Road, Tabarka 8110.
-This top-rated destination is perfect for Complexe hotelier lovers and offers a range of categories to choose from.
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.95742, 8.75096. For more details, visit their website at http://www.lacigaletabarka.com/ or call them at 70 019 000.</t>
+          <t>LA CIGALE TABARKA HOTEL - THALASSO &amp; SPA - GOLF is a high-end balneotherapy complex located in Tabarka, Tunisia. It has multiple restaurants including a jazz bar, a golf course, and a spa. It is located at the following coordinates: (36.95742, 8.75096).</t>
         </is>
       </c>
     </row>
@@ -3766,10 +3733,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a luxurious hotel, check out Odyssee Resort Thalasso &amp; Spa Zarzis located at Odyssee Resort Thalasso and Spa, Zarzis. 
-This top-rated destination is perfect for hotel lovers and offers a range of accommodations to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.85861, 10.98289. 
-For more details, visit their website at http://www.odyssee-resort.com/ or call them at 75 705 705.</t>
+          <t>Odyssee Resort Thalasso &amp; Spa Zarzis is located in Zarzis, Tunisia. It is a popular resort that offers a variety of amenities and activities, including 5 restaurants, swimming pools, a private beach, and tennis courts. The resort is committed to exceptional service and comfort for all of its guests. Its main category is Hotel.</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3840,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Thalassa Sousse located at VJ67+QRV Thalassa Sousse, Av. 14 Janvier, Hammam Susah. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: (35.8609, 10.60313). For more details, visit their website at http://www.thalassa-hotels.com/ or call them at 73 275 355.</t>
+          <t>Thalassa Sousse is a 3 stars hotel located in thala, it features a water park, a private beach, and restaurants. Its coordinates are (35.8609, 10.60313). The hotel received 60 reviews with a rating of 3.0.</t>
         </is>
       </c>
     </row>
@@ -3975,10 +3939,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out dar thala located at HM9C+JWJ dar thala, Thala. 
-This top-rated destination is perfect for mtHf lovers and offers a range of mtHf to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.57244, 8.67031. 
-For more details, visit their website at https://www.google.com/maps/place/dar+thala/@35.5690994,8.6722778,17z/data=!3m1!4b1!4m6!3m5!1s0x12f96345cf08c621:0xa84141fb0798907a!8m2!3d35.5690994!4d8.6722778!16s%2Fg%2F11h2k2nqhs?authuser=0&amp;entry=ttu or call them at 54 256 959.</t>
+          <t>Dar Thala is located in Thala, Tunisia (35.57244, 8.67031). It has a rating of 5.0 out of 5 stars based on 1 review. Dar Thala is a great place to go if you're looking for a peaceful and relaxing getaway. The hotel offers a variety of amenities, including a swimming pool, a garden, and a restaurant. The staff is friendly and helpful, and they're always willing to go the extra mile to make sure your stay is perfect.</t>
         </is>
       </c>
     </row>
@@ -4077,9 +4038,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Restaurant Faouzi Merguez &amp; Lablebi located at HMCC+6GG Restaurant Faouzi Merguez &amp; Lablebi, P17, Thala. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-16:00. To get there, use these GPS coordinates: 34.0586402, -5.0208467.</t>
+          <t>Restaurant Faouzi Merguez &amp; Lablebi is a restaurant located in thala, Tunisia. It offers a range of dishes, including merguez and lablebi. The restaurant is open from 05:00 to 16:00 and is located at HMCC+6GG P17. The restaurant has a rating of 4.0 and has received 8 reviews.</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4141,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a popular place to visit, check out mqh~ lHj mnwr Cafe Elhaj Mnawer. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5857757, 8.6046366.</t>
+          <t>Cafe Elhaj Mnawer, known for its 5-star rating, is situated in Thala, Tunisia. Operating 24 hours a day, this cafe specializes in offering a comfortable atmosphere for its customers. With an address of HMG9+4R7 and coordinates of (35.5857757, 8.6046366), Cafe Elhaj Mnawer is easily accessible.</t>
         </is>
       </c>
     </row>
@@ -4281,10 +4240,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a delicious pizza experience, visit Chicken house located at HMC9+HX Chicken house, Thala. 
-This top-rated Pizzeria offers a range of pizzas to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 38.91539, -77.020328. 
-For more details, call them at 20 645 327.</t>
+          <t>Chicken house is a pizzeria located in Thala, at the coordinates (38.91539, -77.020328). It is open every day from 09:00 to 23:00 and has a rating of 5.0 based on 3 reviews.</t>
         </is>
       </c>
     </row>
@@ -4379,7 +4335,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in Thala and looking for a top-rated dining experience, Restaurant miam's food is the perfect spot for you. Located at HM9C+PC9 Restaurant miam's food, P17, Thala, this restaurant offers a delightful culinary experience with a rating of 5.0. To get in touch, simply call 99 676 429. For more details, visit their website at https://www.google.com/maps/place/Restaurant+miam%27s+food/data=!4m7!3m6!1s0x12f963e83164b151:0xfb72231a8d4d52d9!8m2!3d35.5692753!4d8.6711207!16s%2Fg%2F11h63hl9db!19sChIJUbFkMehj-RIR2VJNjRojcvs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Restaurant miam's food is a highly rated (5.0/5 from 2 reviews) restaurant located in Thala, Gujarat, India. Its exact location is 21.552119, 72.005783. The restaurant offers a variety of dishes, but its specific offerings are not available in the provided information.</t>
         </is>
       </c>
     </row>
@@ -4470,9 +4426,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Restaurant, check out Mourade Mlawi located at HMGC+82G Mourade Mlawi, Thala. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/Mourade+Mlawi/data=!4m7!3m6!1s0x12f9632db2574b23:0x7003a1d7edf201bd!8m2!3d35.5758241!4d8.6700629!16s%2Fg%2F11g4f8g5t2!19sChIJI0tXsi1j-RIRvQHy7dehA3A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Mourade Mlawi is a highly-rated restaurant in Thala known for its delectable cuisine. Located at the coordinates (21.552119, 72.005783), it offers a warm and inviting ambiance for diners. With a 5.0 rating based on two reviews, it has garnered a strong reputation among locals and visitors alike.</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4525,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in thala, Cafe el Homri is a top-rated cafe located at HMQ9+3FW Cafe el Homri, Thala. With a rating of 5.0, it's a must-visit spot for cafe lovers. It's open 24 hours a day, but closed on []. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at [link] or call them at [phone].</t>
+          <t>Cafe el Homri is a cafe located in Thala, Gujarat, India. It is open 24 hours a day and offers a variety of food and drinks. The cafe is rated 5.0 out of 5 stars on Google and has received 1 review.</t>
         </is>
       </c>
     </row>
@@ -4670,9 +4624,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out Queen "cafe-resto" located at HMV6+FPV Queen "cafe-resto". 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their website at https://www.google.com/maps/place/Queen+%22caf%C3%A9-resto%22/data=!4m7!3m6!1s0x12f9633ae5de1413:0x9e475119a82e0100!8m2!3d35.5937497!4d8.6617907!16s%2Fg%2F11smz8k1yr!19sChIJExTe5Tpj-RIRAAEuqBlRR54?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Queen "cafe-resto" is a cafe located in Thala, Gujarat, India. It is rated 5.0 out of 5 stars based on 1 review. The cafe offers a wide range of food and drinks, including coffee, tea, pastries, and sandwiches. It is open from 8:00 AM to 12:00 AM, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -4767,9 +4719,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out La nouvelle cafe located at HMC9+JV5 La nouvelle cafe, Thala. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, visit their link at https://www.google.com/maps/place/La+nouvelle+caf%C3%A9/data=!4m7!3m6!1s0x12f9631fd2216117:0xe575e57381f6e3a7!8m2!3d35.5715048!4d8.669722!16s%2Fg%2F11sxx5sp9p!19sChIJF2Eh0h9j-RIRp-P2gXPldeU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Nouvelle Café, a highly-rated cafe situated in Thala at the coordinates (21.552119, 72.005783), offers a cozy ambiance and delicious coffee beverages. With its prime location, it serves as a convenient destination for locals and tourists alike to unwind and savor aromatic coffee creations.</t>
         </is>
       </c>
     </row>
@@ -4872,10 +4822,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lti El Ksar Resort &amp; Thalasso located at Sousse. 
-This top-rated destination is perfect for Gare lovers and offers a range of categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 28.062422, 76.097031. 
-For more details, visit their website at http://www.lti.de/hotels/lti-el-ksar-resort-thalasso/ or call them at 73 240 460.</t>
+          <t>lti El Ksar Resort &amp; Thalasso is a 4.3-rated resort located in Sousse, Tunisia. It offers Thalasso treatments and features 14 reviews from guests. It is easily accessible via its central location and has a variety of amenities, including a restaurant, bar, and garden. The resort is situated near the beach, making it a great choice for a relaxing getaway.</t>
         </is>
       </c>
     </row>
@@ -4974,9 +4921,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Gare, check out lti Thalassa Sousse located at lti Thalassa Sousse, Av. 14 Janvier, Sousse. 
-This top-rated destination is perfect for Gare lovers and offers a range of categories to choose from. 
-With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their link at https://www.google.com/maps/place/lti+Thalassa+Sousse/data=!4m7!3m6!1s0x12fd8a0bde9a8e9b:0xa2425b1208ef42c4!8m2!3d35.8623964!4d10.6156616!16s%2Fg%2F11btwvstn2!19sChIJm46a3guK_RIRxELvCBJbQqI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 275 355.</t>
+          <t>lti Thalassa Sousse is a train station with a rating of 3.3 found in the city of Sousse, Tunisia. It's located at the following coordinates: (35.8605033, 10.6135856). This place offers a variety of amenities and services to its customers.</t>
         </is>
       </c>
     </row>
@@ -5075,8 +5020,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a reliable Gare option, check out lti Thalassa Sousse located at Av. 14 Janvier, Sousse. 
-With a rating of 3.3, lti Thalassa Sousse is a trusted destination for those seeking a great Gare experience. It's open during these hours:  but closed on . To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their website or call them at 73 275 355.</t>
+          <t>The lti Thalassa Sousse is a train station located in Sousse, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856) and offers train services to various destinations.</t>
         </is>
       </c>
     </row>
@@ -5179,7 +5123,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lti El Ksar Resort &amp; Thalasso located at lti El Ksar Resort &amp; Thalasso, Sousse. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 28.062422, 76.097031. For more details, visit their website at http://www.lti.de/hotels/lti-el-ksar-resort-thalasso/ or call them at 73 240 460.</t>
+          <t>Lti El Ksar Resort &amp; Thalasso is a hotel located in Sousse, Tunisia. It has 14 reviews and is rated 4.3. The hotel offers thalasso therapy and is located near the beach. It is also close to several restaurants and shops.</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5222,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for something fun to do, check out lti Thalassa Sousse located at Av. 14 Janvier, Sousse. This top-rated destination is perfect for Gare lovers. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their website or call them at 73 275 355.</t>
+          <t>The lti Thalassa Sousse is a train station located in Thala, Tunisia. It is situated at the coordinates (35.8605033, 10.6135856). The station has a rating of 3.3 out of 5 based on 12 reviews.</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5325,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Gare, consider lti El Ksar Resort &amp; Thalasso located at lti El Ksar Resort &amp; Thalasso, Sousse. This top-rated destination offers a range of Gare with a rating of 4.3. For more details, visit their website at http://www.lti.de/hotels/lti-el-ksar-resort-thalasso/ or call them at 73 240 460.</t>
+          <t>lti El Ksar Resort &amp; Thalasso is a resort located in Sousse, Tunisia. It is a popular destination for tourists seeking a relaxing and rejuvenating vacation. The resort offers a variety of amenities, including a thalasso spa, swimming pools, and restaurants. It is also conveniently located near the beach and other attractions.</t>
         </is>
       </c>
     </row>
@@ -5480,7 +5424,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a train related destination, check out lti Thalassa Sousse located at Av. 14 Janvier, Sousse. This destination is perfect for Gare lovers. With a rating of 3.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.8605033, 10.6135856. For more details, visit their website or call them at 73 275 355.</t>
+          <t>**lti Thalassa Sousse** is a train station located at Av. 14 Janvier, Sousse, Tunisia. It has a rating of 3.3 out of 5 based on 12 reviews. The coordinates of the station are (35.8605033, 10.6135856). The phone number is 73 275 355 and it is owned by lti Thalassa Sousse (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -5579,7 +5523,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a top-rated Station-service, check out Station service Agil THALA located at HMH9+7MW Station service Agil THALA, P17, Thala. With a rating of 4.4, this must-visit spot offers a range of services. To get there, use these GPS coordinates: 21.552119, 72.005783. For more details, call them at 77 480 453.</t>
+          <t>Station service Agil THALA is a gas station located in Thala, Gujarat, India. It offers a variety of services, including fuel, snacks, and drinks. The gas station is conveniently located near the highway, making it a popular stop for travelers. It has a rating of 4.4 out of 5 stars on Google, with many positive reviews from customers. The station is open 24 hours a day, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -5674,7 +5618,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in thala and looking for a Station-service, check out TOTAL Thala (1 station) located at HMFC+54Q TOTAL Thala (1 station), P17, Thala 1210. This top-rated destination is perfect for Station-service lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.5857757, 8.6046366.</t>
+          <t>Nestled in the bustling city of Thala at the coordinates (35.5857757, 8.6046366), TOTAL Thala (1 station) is a renowned gas station offering exceptional services. With a 5-star rating based on 4 reviews, this station has earned a reputation for excellence among the local community. Customers can expect a wide range of fuel options, ensuring they find the perfect fit for their vehicle. The station's convenient location along HMFC+54Q makes it easily accessible to motorists.</t>
         </is>
       </c>
     </row>
